--- a/smeta.xlsx
+++ b/smeta.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Бизнес-аналитик</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>120.000</t>
+  </si>
+  <si>
+    <t>Кол-во часов работы</t>
+  </si>
+  <si>
+    <t>Общая стоимость</t>
   </si>
 </sst>
 </file>
@@ -393,27 +399,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -423,8 +437,12 @@
       <c r="C2">
         <v>773</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <f>C2*D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -434,8 +452,12 @@
       <c r="C3">
         <v>833</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f>C3*D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -445,8 +467,12 @@
       <c r="C4">
         <v>595</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f>D4*C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -456,8 +482,16 @@
       <c r="C5">
         <v>773</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f>25+20+10+10+24+7+8</f>
+        <v>104</v>
+      </c>
+      <c r="E5">
+        <f>D5*C5</f>
+        <v>80392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -467,8 +501,16 @@
       <c r="C6">
         <v>892</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f>20+25+24+10+15+9+8+10+20+24+9</f>
+        <v>174</v>
+      </c>
+      <c r="E6">
+        <f>D6*C6</f>
+        <v>155208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -478,8 +520,16 @@
       <c r="C7">
         <v>744</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f>D6+D9+D10+D11</f>
+        <v>838</v>
+      </c>
+      <c r="E7">
+        <f>C7*D7</f>
+        <v>623472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -489,8 +539,16 @@
       <c r="C8">
         <v>803</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f>24+36+24</f>
+        <v>84</v>
+      </c>
+      <c r="E8">
+        <f>C8*D8</f>
+        <v>67452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -500,8 +558,16 @@
       <c r="C9">
         <v>892</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f>60+36+48+48</f>
+        <v>192</v>
+      </c>
+      <c r="E9">
+        <f>C9*D9</f>
+        <v>171264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -511,8 +577,16 @@
       <c r="C10">
         <v>595</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f>35+30+30+30+30+25+30+35+35+26+30+31</f>
+        <v>367</v>
+      </c>
+      <c r="E10">
+        <f>C10*D10</f>
+        <v>218365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -521,6 +595,23 @@
       </c>
       <c r="C11">
         <v>714</v>
+      </c>
+      <c r="D11">
+        <f>40+25+20+20</f>
+        <v>105</v>
+      </c>
+      <c r="E11">
+        <f>C11*D11</f>
+        <v>74970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E2:E11)</f>
+        <v>1391123</v>
       </c>
     </row>
   </sheetData>

--- a/smeta.xlsx
+++ b/smeta.xlsx
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Бизнес-аналитик</t>
   </si>
   <si>
     <t>Системный аналитик</t>
-  </si>
-  <si>
-    <t>Менеджер</t>
   </si>
   <si>
     <t>backend-разработчик (Junior)</t>
@@ -88,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,13 +93,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,8 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -399,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,16 +429,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -432,14 +446,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>773</v>
       </c>
+      <c r="D2">
+        <v>584</v>
+      </c>
       <c r="E2">
         <f>C2*D2</f>
-        <v>0</v>
+        <v>451432</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -447,14 +464,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>833</v>
       </c>
+      <c r="D3">
+        <v>584</v>
+      </c>
       <c r="E3">
         <f>C3*D3</f>
-        <v>0</v>
+        <v>486472</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -462,14 +482,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>595</v>
+        <v>773</v>
+      </c>
+      <c r="D4">
+        <v>91</v>
       </c>
       <c r="E4">
         <f>D4*C4</f>
-        <v>0</v>
+        <v>70343</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -480,15 +503,14 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>773</v>
+        <v>892</v>
       </c>
       <c r="D5">
-        <f>25+20+10+10+24+7+8</f>
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="E5">
         <f>D5*C5</f>
-        <v>80392</v>
+        <v>130232</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -496,75 +518,71 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>892</v>
+        <v>744</v>
       </c>
       <c r="D6">
-        <f>20+25+24+10+15+9+8+10+20+24+9</f>
-        <v>174</v>
+        <v>584</v>
       </c>
       <c r="E6">
-        <f>D6*C6</f>
-        <v>155208</v>
+        <f>C6*D6</f>
+        <v>434496</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>744</v>
+        <v>803</v>
       </c>
       <c r="D7">
-        <f>D6+D9+D10+D11</f>
-        <v>838</v>
+        <v>124</v>
       </c>
       <c r="E7">
         <f>C7*D7</f>
-        <v>623472</v>
+        <v>99572</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>803</v>
+        <v>892</v>
       </c>
       <c r="D8">
-        <f>24+36+24</f>
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="E8">
         <f>C8*D8</f>
-        <v>67452</v>
+        <v>157884</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>892</v>
+        <v>595</v>
       </c>
       <c r="D9">
-        <f>60+36+48+48</f>
-        <v>192</v>
+        <v>367</v>
       </c>
       <c r="E9">
         <f>C9*D9</f>
-        <v>171264</v>
+        <v>218365</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -572,46 +590,26 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>595</v>
+        <v>714</v>
       </c>
       <c r="D10">
-        <f>35+30+30+30+30+25+30+35+35+26+30+31</f>
-        <v>367</v>
+        <v>105</v>
       </c>
       <c r="E10">
         <f>C10*D10</f>
-        <v>218365</v>
+        <v>74970</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>714</v>
-      </c>
-      <c r="D11">
-        <f>40+25+20+20</f>
-        <v>105</v>
-      </c>
-      <c r="E11">
-        <f>C11*D11</f>
-        <v>74970</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <f>SUM(E2:E11)</f>
-        <v>1391123</v>
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2">
+        <f>SUM(E2:E10)</f>
+        <v>2123766</v>
       </c>
     </row>
   </sheetData>
